--- a/data/financial_statements/soci/HSIC.xlsx
+++ b/data/financial_statements/soci/HSIC.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,129 +613,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>3067000000</v>
@@ -636,7 +747,7 @@
         <v>3179000000</v>
       </c>
       <c r="E2">
-        <v>3331021000</v>
+        <v>3331000000</v>
       </c>
       <c r="F2">
         <v>3178000000</v>
@@ -745,8 +856,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>-0.0349</v>
@@ -867,20 +978,20 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>2153000000</v>
+        <v>2198000000</v>
       </c>
       <c r="C4">
-        <v>2085000000</v>
+        <v>2130000000</v>
       </c>
       <c r="D4">
-        <v>2206000000</v>
+        <v>2253000000</v>
       </c>
       <c r="E4">
-        <v>2352770000</v>
+        <v>2351000000</v>
       </c>
       <c r="F4">
         <v>2266000000</v>
@@ -989,20 +1100,20 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>914000000</v>
+        <v>869000000</v>
       </c>
       <c r="C5">
-        <v>945000000</v>
+        <v>900000000</v>
       </c>
       <c r="D5">
-        <v>973000000</v>
+        <v>926000000</v>
       </c>
       <c r="E5">
-        <v>978252000</v>
+        <v>980000000</v>
       </c>
       <c r="F5">
         <v>912000000</v>
@@ -1111,8 +1222,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>648000000</v>
@@ -1127,7 +1238,7 @@
         <v>906656000</v>
       </c>
       <c r="F6">
-        <v>657000000</v>
+        <v>701000000</v>
       </c>
       <c r="G6">
         <v>635000000</v>
@@ -1233,8 +1344,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>211000000</v>
@@ -1355,8 +1466,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>11000000</v>
@@ -1396,23 +1507,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>11000000</v>
+        <v>4000000</v>
       </c>
       <c r="C9">
-        <v>9000000</v>
+        <v>3000000</v>
       </c>
       <c r="D9">
-        <v>7000000</v>
+        <v>2000000</v>
       </c>
       <c r="E9">
-        <v>7600000</v>
+        <v>2000000</v>
       </c>
       <c r="F9">
-        <v>7000000</v>
+        <v>1000000</v>
       </c>
       <c r="G9">
         <v>7000000</v>
@@ -1518,11 +1629,11 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>-6000000</v>
+        <v>11000000</v>
       </c>
       <c r="C10">
         <v>-6000000</v>
@@ -1531,10 +1642,10 @@
         <v>-5000000</v>
       </c>
       <c r="E10">
-        <v>-7108000</v>
+        <v>2000000</v>
       </c>
       <c r="F10">
-        <v>-5000000</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>-5000000</v>
@@ -1640,8 +1751,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>205000000</v>
@@ -1653,7 +1764,7 @@
         <v>239000000</v>
       </c>
       <c r="E11">
-        <v>193548000</v>
+        <v>193000000</v>
       </c>
       <c r="F11">
         <v>206000000</v>
@@ -1762,8 +1873,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>46000000</v>
@@ -1775,10 +1886,10 @@
         <v>57000000</v>
       </c>
       <c r="E12">
-        <v>43349000</v>
+        <v>43000000</v>
       </c>
       <c r="F12">
-        <v>50000000</v>
+        <v>49000000</v>
       </c>
       <c r="G12">
         <v>47000000</v>
@@ -1884,8 +1995,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>159000000</v>
@@ -2006,8 +2117,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>3000000</v>
@@ -2128,8 +2239,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2145,8 +2256,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>12000000</v>
@@ -2267,8 +2378,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>150000000</v>
@@ -2280,10 +2391,10 @@
         <v>181000000</v>
       </c>
       <c r="E17">
-        <v>147232000</v>
+        <v>147000000</v>
       </c>
       <c r="F17">
-        <v>162000000</v>
+        <v>155000000</v>
       </c>
       <c r="G17">
         <v>156000000</v>
@@ -2389,23 +2500,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="C18">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="D18">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="E18">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F18">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="G18">
         <v>1.11</v>
@@ -2511,8 +2622,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>1.09</v>
@@ -2633,23 +2744,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>135609000</v>
+        <v>136000000</v>
       </c>
       <c r="C20">
-        <v>137350000</v>
+        <v>137000000</v>
       </c>
       <c r="D20">
-        <v>137297000</v>
+        <v>137000000</v>
       </c>
       <c r="E20">
-        <v>140091000</v>
+        <v>138000000</v>
       </c>
       <c r="F20">
-        <v>139377000</v>
+        <v>139000000</v>
       </c>
       <c r="G20">
         <v>140358000</v>
@@ -2755,23 +2866,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>137084000</v>
+        <v>137000000</v>
       </c>
       <c r="C21">
-        <v>138869000</v>
+        <v>139000000</v>
       </c>
       <c r="D21">
-        <v>139237000</v>
+        <v>139000000</v>
       </c>
       <c r="E21">
-        <v>141773000</v>
+        <v>140000000</v>
       </c>
       <c r="F21">
-        <v>141079000</v>
+        <v>141000000</v>
       </c>
       <c r="G21">
         <v>141657000</v>
@@ -2877,20 +2988,20 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.298</v>
+        <v>0.2833</v>
       </c>
       <c r="C22">
-        <v>0.3119</v>
+        <v>0.297</v>
       </c>
       <c r="D22">
-        <v>0.3061</v>
+        <v>0.2913</v>
       </c>
       <c r="E22">
-        <v>0.2937</v>
+        <v>0.2942</v>
       </c>
       <c r="F22">
         <v>0.287</v>
@@ -2999,8 +3110,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.0688</v>
@@ -3121,8 +3232,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0.0668</v>
@@ -3134,7 +3245,7 @@
         <v>0.0752</v>
       </c>
       <c r="E24">
-        <v>0.0581</v>
+        <v>0.0579</v>
       </c>
       <c r="F24">
         <v>0.0648</v>
@@ -3243,8 +3354,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0.0489</v>
@@ -3256,10 +3367,10 @@
         <v>0.0569</v>
       </c>
       <c r="E25">
-        <v>0.0442</v>
+        <v>0.0441</v>
       </c>
       <c r="F25">
-        <v>0.051</v>
+        <v>0.0488</v>
       </c>
       <c r="G25">
         <v>0.0526</v>
@@ -3365,11 +3476,11 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>263000000</v>
+        <v>273000000</v>
       </c>
       <c r="C26">
         <v>273000000</v>
@@ -3378,10 +3489,10 @@
         <v>299000000</v>
       </c>
       <c r="E26">
-        <v>259184300</v>
+        <v>262000000</v>
       </c>
       <c r="F26">
-        <v>263000000</v>
+        <v>262000000</v>
       </c>
       <c r="G26">
         <v>260000000</v>
@@ -3487,8 +3598,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>211000000</v>
@@ -3609,8 +3720,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>162000000</v>
@@ -3731,8 +3842,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3775,8 +3886,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>162000000</v>
@@ -3788,10 +3899,10 @@
         <v>186000000</v>
       </c>
       <c r="E30">
-        <v>152526000</v>
+        <v>152000000</v>
       </c>
       <c r="F30">
-        <v>169000000</v>
+        <v>162000000</v>
       </c>
       <c r="G30">
         <v>164000000</v>
@@ -3897,8 +4008,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>1.1946</v>
@@ -4019,8 +4130,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>1.1818</v>
@@ -4141,8 +4252,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -4188,8 +4299,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -4238,8 +4349,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>1.1946</v>
@@ -4360,8 +4471,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>1.1818</v>
@@ -4482,8 +4593,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>137084000</v>
@@ -4604,11 +4715,11 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>0.0858</v>
+        <v>0.089</v>
       </c>
       <c r="C38">
         <v>0.0901</v>
@@ -4617,10 +4728,10 @@
         <v>0.0941</v>
       </c>
       <c r="E38">
-        <v>0.07779999999999999</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="F38">
-        <v>0.0828</v>
+        <v>0.0824</v>
       </c>
       <c r="G38">
         <v>0.0876</v>
@@ -4726,8 +4837,8 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
         <v>0.032</v>
@@ -4742,7 +4853,7 @@
         <v>0.083</v>
       </c>
       <c r="F39">
-        <v>0.0665</v>
+        <v>0.0664</v>
       </c>
       <c r="G39">
         <v>0.0536</v>
